--- a/results/Big_bench_hard.xlsx
+++ b/results/Big_bench_hard.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="143">
   <si>
     <t>Task</t>
   </si>
@@ -427,68 +427,36 @@
   <si>
     <t>optimized_prompt = '''
 ### Context  
-You are a linguistic analyst tasked with developing a structured methodology for analyzing and determining the antecedent of pronouns in sentences. This task requires a deep understanding of language nuances, including gender-neutral pronouns, multiple antecedents, and abstract concepts. Your goal is to create a comprehensive guide that enhances precision and consistency in pronoun resolution across various contexts, such as formal vs. informal language and cultural nuances.
+You are a Research Methodologist tasked with developing a comprehensive methodology for designing an experiment to investigate a specific research question. Your goal is to outline the key steps involved in formulating a hypothesis, designing the experiment, collecting and analyzing data, and drawing conclusions. Consider underlying assumptions and provide strategies for effectively addressing the research question. Test each strategy individually to monitor progress and determine the most effective solution.
 ### Instructions  
-1. **Identify Pronouns**: Begin by identifying all pronouns in the sentence.  
-2. **Locate Antecedents**: Determine the noun or noun phrase to which each pronoun refers, considering gender, number, and context.  
-3. **Analyze Context**: Examine the sentence structure and context to understand relationships between entities.  
-4. **Apply Agreement Rules**: Ensure pronouns agree in gender and number with their antecedents.  
-5. **Consider Logical Sense**: Evaluate which entity makes logical sense as the antecedent in the given context.  
-6. **Evaluate Proximity**: Consider the proximity of pronouns to potential antecedents, while noting this is not definitive.  
-7. **Determine Ambiguity**: Decide if the antecedent is clear or ambiguous based on the analysis.  
-8. **Practice Scenarios**: Apply the methodology to various practice scenarios to test its effectiveness.  
-9. **Feedback Mechanism**: Incorporate feedback from practice scenarios to continuously refine the methodology.  
-### Examples  
-#### Example 1  
-**[Question]** In the following sentence, explain the antecedent of the pronoun, or state that it is ambiguous.  
-Sentence: My parent called his secretary for more information.  
-Options:  
-(A) They were my parent's secretary  
-(B) They were the secretary's secretary  
-(C) Ambiguous  
-**[Answer]**  
-1. Identify the pronouns: "his"  
-2. Determine the antecedent: "parent"  
-3. Analyze context: The possessive pronoun "his" refers to "parent."  
-4. Apply agreement: "his" matches the gender and number of "parent."  
-5. Logical sense: The secretary belongs to the parent.  
-6. Proximity: "his" is closest to "parent."  
-7. Conclusion: The antecedent is "parent."  
-&lt;ANS_START&gt;(A)&lt;ANS_END&gt;
-#### Example 2  
-**[Question]** In the following sentence, explain the antecedent of the pronoun, or state that it is ambiguous.  
-Sentence: The scientist collaborates with the artist, and she shares a story.  
-Options:  
-(A) The scientist shares a story  
-(B) The artist shares a story  
-(C) Ambiguous  
-**[Answer]**  
-1. Identify the pronoun: "she"  
-2. Determine possible antecedents: "scientist" and "artist"  
-3. Analyze context: Both are potential antecedents.  
-4. Apply agreement: "she" could match either noun.  
-5. Logical sense: Both could logically share a story.  
-6. Proximity: "she" follows "artist," but this is not definitive.  
-7. Conclusion: The antecedent is ambiguous.  
-&lt;ANS_START&gt;(C)&lt;ANS_END&gt;
-#### Example 3  
-**[Question]** In the following sentence, explain the antecedent of the pronoun, or state that it is ambiguous.  
-Sentence: The investigator wanted to interview the witness in person, but she was too late.  
-Options:  
-(A) The investigator was too late  
-(B) The witness was too late  
-(C) Ambiguous  
-**[Answer]**  
-1. Identify the pronoun: "she"  
-2. Determine possible antecedents: "investigator" and "witness"  
-3. Analyze context: Both are potential antecedents.  
-4. Apply agreement: "she" could match either noun.  
-5. Logical sense: Both could logically be too late.  
-6. Proximity: "she" follows "witness," but this is not definitive.  
-7. Conclusion: The antecedent is ambiguous.  
-&lt;ANS_START&gt;(C)&lt;ANS_END&gt;
-### Conclusion  
-Develop a comprehensive methodology for pronoun antecedent analysis, incorporating practice scenarios and feedback to refine the approach continuously.  
+1. **Role Assignment**: Assume the role of a Research Methodologist to guide your tone, accuracy, and perspective.  
+2. **Key Concepts**: Focus on the principles of experimental design, including hypothesis formulation, data collection, analysis, and conclusion drawing. Connect these steps to relevant theoretical frameworks.  
+3. **Guided Steps**:  
+   a. Formulate a clear and testable hypothesis.  
+   b. Design the experiment, detailing the variables and controls.  
+   c. Collect data systematically, ensuring reliability and validity.  
+   d. Analyze the data using appropriate statistical methods.  
+   e. Draw conclusions based on the data analysis, considering any limitations.  
+4. **Output Format**: Use the following format for each example:  
+   - **[Question]**: Present the scenario or question about causation.  
+   - **[Answer]**: Provide a step-by-step reasoning followed by the final answer between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags.  
+5. **Examples**:  
+   - **[Question]**: How would a typical person answer each of the following questions about causation?  
+     Alex is playing a board game. Every turn in the game, you simultaneously roll two-sided dice and flip a coin. Alex will either win or lose the game on his next turn. Alex will only win the game if the total of his dice roll is greater than 2 AND the coin comes up heads. It is very likely that he will roll higher than 2, and the coin has equal odds of coming up heads or tails. Alex flips the coin and rolls his dice at exactly the same time. The coin comes up heads, and he rolls a 12, so just as expected, he rolled greater than 2. Alex wins the game. Did Alex win because of the coin flip?  
+     Options:  
+     - Yes  
+     - No  
+     **[Answer]**:  
+     1. **Understanding the Scenario**: In the given scenario, Alex is playing a board game where he needs to roll two dice and flip a coin to win. To win, he must roll greater than 2 on the dice and have the coin come up heads.  
+     2. **Analyzing the Event**: Alex simultaneously rolls the dice and flips the coin. The coin comes up heads, and he rolls a 12, meeting the condition of rolling greater than 2.  
+     3. **Causal Attribution**: The question asks whether Alex won because of the coin flip. To determine this, we need to consider the causal relationship between the coin flip and Alex's win.  
+     4. **Causal Relationship**: In this case, the coin flip directly influences Alex's win because the condition for winning includes the coin coming up heads. If the coin had come up tails, Alex would not have won regardless of the dice roll.  
+     5. **Logical Pathway**:  
+        a. The condition for Alex to win includes the coin coming up heads.  
+        b. The coin did come up heads in this instance.  
+        c. Therefore, the coin flip directly contributed to Alex's win.  
+     6. **Final Answer**: Yes, Alex won because of the coin flip, as it was a necessary condition for his victory based on the rules of the game. &lt;ANS_START&gt;Yes&lt;ANS_END&gt;  
+6. **Conclusion**: Summarize the task by restating the importance of a structured methodology in experimental design and the role of causation analysis in drawing valid conclusions.  
 '''</t>
   </si>
   <si>
@@ -1227,14 +1195,14 @@
     <t>salient_translation_error_detection</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require detecting the type of error in an English translation of a German source sentence..
 Let's think step by step.
 For each question, wrap only the final letter (A) (B) (C) (D) (E) or (F) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Detect the type of error in an English translation of a German source sentence.
 [Question] : The following translations from German to English contain a particular error. That error will be one of the following types: Named Entities: An entity (names, places, locations, etc.) is changed to a different entity. Numerical Values: Numerical values (ordinals or cardinals), dates, and/or units are changed. Modifiers or Adjectives: The modifiers and adjectives pertaining to a noun are changed. Negation or Antonyms: Introduce or remove a negation or change comparatives to their antonyms. Facts: Trivial factual errors not pertaining to the above classes are introduced in the translations. Dropped Content: A significant clause in the translation is removed. Please identify that error.  Source: In der Liste der Baudenkmale in Lenzen (Elbe) sind alle Baudenkmale der brandenburgischen Stadt Lenzen (Elbe) und ihrer Ortsteile aufgelistet.
 Translation: In the list of architectural monuments in Lenzen all architectural monuments of the Brandenburg city of Lenzen and its districts are listed.
@@ -1423,14 +1391,14 @@
     <t>geometric_shapes</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require nameing geometric shapes from their SVG paths..
 Let's think step by step.
 For each question, wrap only the final letter (A) (B) (C) (D) (E) (F) (G) (H) (I) or (J) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Name geometric shapes from their SVG paths.
 [Question]: This SVG path element &lt;path d="M 31.00,73.00 L 32.00,59.00 L 44.00,50.00 L 49.00,41.00 L 64.00,37.00 L 71.00,55.00 L 64.00,76.00 L 52.00,61.00 L 31.00,73.00"/&gt; draws a
 Options:
@@ -1690,14 +1658,14 @@
     <t>snarks</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require determining which of two sentences is sarcastic..
 Let's think step by step.
 For each question, wrap only the final letter (A) or (B) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Determine which of two sentences is sarcastic.
 According to Cambridge University Dictionary, sarcasm is "the use of remarks that clearly mean the opposite of what they say, made in order to hurt someone's feelings or to criticize something in a humorous way." Sarcastic sentences often contain satirical or ironic utterances, hyperboles, ambivalent or witty remarks.
 Q: Which statement is sarcastic?
@@ -1861,14 +1829,14 @@
     <t>temporal_sequences</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require answering questions about which times certain events could have occurred.
 Let's think step by step.
 For each question, wrap only the final letter (A) (B) (C) or (D) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Answer questions about which times certain events could have occurred.
 [Question]: Today, Emily went to the museum. Between what times could they have gone?
 We know that:
@@ -2118,14 +2086,14 @@
     <t>web_of_lies</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require evaluating a random boolean function expressed as a word problem.
 Let's think step by step.
 For each question, wrap only the final choice Yes or No between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Evaluate a random boolean function expressed as a word problem.
 [Question]: Question: Fidel tells the truth. Jerry says Fidel tells the truth. Vina says Jerry tells the truth. Millicent says Vina lies. Raymond says Millicent lies. Does Raymond tell the truth?
 [Answer]: Let's think step by step.
@@ -2276,14 +2244,14 @@
     <t>navigate</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 Given a series of navigation instructions, You are given a task that require determining whether one would end up back at the starting point.
 Let's think step by step.
 For each question, wrap only the final choice Yes or No between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Given a series of navigation instructions, determine whether one would end up back at the starting point.
 [Question]: If you follow these instructions, do you return to the starting point? Turn left. Turn around. Turn left. Take 7 steps. Take 2 steps. Take 4 steps. Take 8 steps.
 Options:
@@ -2439,14 +2407,14 @@
     <t>reasoning_about_colored_objects</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require answering extremely simple questions about the colors of objects on a surface.
 Let's think step by step.
 For each question, wrap only the final choice ltter (eg. (A) or (B)) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Answer extremely simple questions about the colors of objects on a surface.
 [Question]: On the nightstand, there is a red pencil, a purple mug, a burgundy keychain, a fuchsia teddy bear, a black plate, and a blue stress ball. What color is the stress ball?
 Options:
@@ -2707,14 +2675,14 @@
     <t>sports_understanding</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require determining whether an artificially constructed sentence relating to sports is plausible or not.
 Let's think step by step.
 For each question, wrap only the final choice yes or no between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Determine whether an artificially constructed sentence relating to sports is plausible or not.
 [Question]: Is the following sentence plausible? "Bam Adebayo scored a reverse layup in the Western Conference Finals."
 [Answer]: Let's think step by step. Bam Adebayo is an American basketball player. Scoring a reverse layup in the Western Conference Finals is part of the NBA Finals. So the answer is &lt;ANS_START&gt;yes&lt;ANS_END&gt;.
@@ -2812,14 +2780,14 @@
     <t>multistep_arithmetic_two</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require solving multi-step arithmetic problems..
 Let's think step by step.
 For each question, wrap only the final answer between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Solve multi-step arithmetic problems.
 [Question]: ((-5 + 9 * -4 - 0) * (4 + -7 + 0 * -5)) =
 [Answer]: Let's think step by step.
@@ -2936,14 +2904,14 @@
     <t>ruin_names</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require selecting the humorous edit that 'ruins' the input movie or musical artist name.
 Let's think step by step.
 For each question, wrap only the final letter (A) (B) (C) or (D) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Select the humorous edit that 'ruins' the input movie or musical artist name.
 [Question]: Which of the following is a humorous edit of this artist or movie name: 'whitesnake'?
 Options:
@@ -3121,14 +3089,14 @@
     <t>movie_recommendation</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require recommending movies similar to the given list of movies.
 Let's think step by step.
 For each question, wrap only the final letter (A) (B) (C) or (D) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t xml:space="preserve">manual_prompt = '''
+    <t xml:space="preserve">few_shot_prompt = '''
 Recommend movies similar to the given list of movies.
 [Question]: Find a movie similar to Star Wars Episode IV - A New Hope, Indiana Jones and the Last Crusade, Star Wars Episode V - The Empire Strikes Back, The Big Lebowski:
 Options:
@@ -3304,14 +3272,14 @@
     <t>formal_fallacies</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require distinguishing deductively valid arguments from formal fallacies.
 Let's think step by step.
 For each question, wrap only the final choice valid or invalid between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 Distinguish deductively valid arguments from formal fallacies.
 [Question]: "It is not always easy to see who is related to whom -- and in which ways. The following argument pertains to this question: To begin with, Lesley is a close friend of Fernando. Moreover, being a close friend of Fernando or a schoolmate of Lowell is sufficient for being a great-grandfather of Leroy. It follows that Lesley is a great-grandfather of Leroy."
 Is the argument, given the explicitly stated premises, deductively valid or invalid?
@@ -3516,14 +3484,14 @@
     <t>dyck_languages</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given a task that require completing the rest of the sequence by adding only the missing closing symbols a Dyck-n word.
 Let's think step by step.
 For each question, wrap only the final answer between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t xml:space="preserve">manual_prompt = '''
+    <t xml:space="preserve">few_shot_prompt = '''
 Correctly close a Dyck-n word.
 [Question]: Complete the rest of the sequence, making sure that the parentheses are closed properly. Input: [ { [
 [Answer]: Let's think step by step.
@@ -4007,14 +3975,7 @@
 </t>
   </si>
   <si>
-    <t>simple_prompt = '''
-You are given a logical deduction task which requires deducing the order of a sequence of objects.
-Let's think step by step.
-For each question, wrap only the final letter (A) (B) or (C) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
-'''</t>
-  </si>
-  <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 A logical deduction task which requires deducing the order of a sequence of objects.
 [Question]: The following paragraphs each describe a set of three objects arranged in a fixed order. The statements are logically consistent within each paragraph. In a golf tournament, there were three golfers: Amy, Eli, and Eve. Eve finished above Amy. Eli finished below Amy.
 Options:
@@ -4256,14 +4217,14 @@
     <t>tracking_shuffled_objects_three_objects</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given A task requiring determining the final positions of a set of objects given their initial positions and a description of a sequence of swaps.
 Let's think step by step.
 For each question, wrap only the final letter (A) (B) or (C) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t>manual_prompt = '''
+    <t>few_shot_prompt = '''
 A task requiring determining the final positions of a set of objects given their initial positions and a description of a sequence of swaps.
 [Question]: Alice, Bob, and Claire are playing a game. At the start of the game, they are each holding a ball: Alice has a yellow ball, Bob has a blue ball, and Claire has a pink ball.
 As the game progresses, pairs of players trade balls. First, Claire and Alice swap balls. Then, Alice and Bob swap balls. Finally, Claire and Bob swap balls. At the end of the game, Bob has the
@@ -4472,14 +4433,14 @@
     <t>tracking_shuffled_objects_five_objects</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given A task requiring determining the final positions of a set of objects given their initial positions and a description of a sequence of swaps.
 Let's think step by step.
 For each question, wrap only the final letter (A) (B) (C) (D) or (E) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
 '''</t>
   </si>
   <si>
-    <t xml:space="preserve">manual_prompt = '''
+    <t xml:space="preserve">few_shot_prompt = '''
 A task requiring determining the final positions of a set of objects given their initial positions and a description of a sequence of swaps.
 [Question]: Alice, Bob, and Claire are playing a game. At the start of the game, they are each holding a ball: Alice has a yellow ball, Bob has a blue ball, and Claire has a pink ball.
 As the game progresses, pairs of players trade balls. First, Claire and Alice swap balls. Then, Alice and Bob swap balls. Finally, Claire and Bob swap balls. At the end of the game, Bob has the
@@ -4647,7 +4608,7 @@
     <t>tracking_shuffled_objects_seven_objects</t>
   </si>
   <si>
-    <t>simple_prompt = '''
+    <t>zero_shot_prompt = '''
 You are given A task requiring determining the final positions of a set of objects given their initial positions and a description of a sequence of swaps.
 Let's think step by step.
 For each question, wrap only the final letter (A) (B) (C) (D) (E) (F) or (G) between &lt;ANS_START&gt; and &lt;ANS_END&gt; tags
@@ -5825,16 +5786,16 @@
         <v>27.6</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -5867,7 +5828,7 @@
     </row>
     <row r="35" ht="17.25" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2">
         <v>32.0</v>
@@ -5882,21 +5843,21 @@
         <v>79.1</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="36" ht="17.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="2">
         <v>19.6</v>
@@ -5911,21 +5872,21 @@
         <v>65.3</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="37" ht="17.25" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="2">
         <v>15.5</v>
@@ -5940,16 +5901,16 @@
         <v>51.1</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39">
